--- a/data/plantilla.xlsx
+++ b/data/plantilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josemaria.flores\Documents\CEDIS\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2042969F-4F91-4EA4-A46D-357A0131BC4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89BD666-CEF5-4444-9841-4635F9C1A44E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6A017247-C418-4239-B6E8-A667328D32B4}"/>
+    <workbookView xWindow="3630" yWindow="5040" windowWidth="12600" windowHeight="8580" firstSheet="3" activeTab="4" xr2:uid="{6A017247-C418-4239-B6E8-A667328D32B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Información SKU" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
-  <si>
-    <t>Clave</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Nombre SKU</t>
   </si>
@@ -55,15 +52,6 @@
     <t>Política de Inventario</t>
   </si>
   <si>
-    <t>Volumen x Pieza</t>
-  </si>
-  <si>
-    <t>Peso x Pieza</t>
-  </si>
-  <si>
-    <t>Piezas x Caja</t>
-  </si>
-  <si>
     <t>Peso x Caja</t>
   </si>
   <si>
@@ -206,6 +194,15 @@
   </si>
   <si>
     <t>Turno Devolución</t>
+  </si>
+  <si>
+    <t>Volumen x Unidad</t>
+  </si>
+  <si>
+    <t>Peso x Unidad</t>
+  </si>
+  <si>
+    <t>Unidades x Caja</t>
   </si>
 </sst>
 </file>
@@ -289,10 +286,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,22 +590,22 @@
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -628,67 +621,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -720,25 +713,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -753,8 +746,8 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,40 +768,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +816,7 @@
   </sheetPr>
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -849,52 +842,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -909,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,52 +928,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/plantilla.xlsx
+++ b/data/plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josemaria.flores\Documents\CEDIS\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89BD666-CEF5-4444-9841-4635F9C1A44E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA407D2-2438-4BE6-80FC-0AEE31121283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="5040" windowWidth="12600" windowHeight="8580" firstSheet="3" activeTab="4" xr2:uid="{6A017247-C418-4239-B6E8-A667328D32B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6A017247-C418-4239-B6E8-A667328D32B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Información SKU" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Base de Embarque" sheetId="4" r:id="rId4"/>
     <sheet name="Base de Devoluciones" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
-  <si>
-    <t>Nombre SKU</t>
-  </si>
-  <si>
-    <t>Clasificación ABC Cliente</t>
-  </si>
-  <si>
-    <t>Clasificación ABC Sintec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Política de Inventario</t>
   </si>
@@ -61,27 +52,12 @@
     <t>Cajas x Tarima</t>
   </si>
   <si>
-    <t>ID Categoría</t>
-  </si>
-  <si>
     <t>Categoría</t>
   </si>
   <si>
-    <t>ID Subcategoría</t>
-  </si>
-  <si>
     <t>Sub-Categoría</t>
   </si>
   <si>
-    <t>Familia Almacén I</t>
-  </si>
-  <si>
-    <t>Familia Almacén II</t>
-  </si>
-  <si>
-    <t>Familia Almacén III</t>
-  </si>
-  <si>
     <t>Zona de Completitud</t>
   </si>
   <si>
@@ -91,12 +67,6 @@
     <t>Densidad de Pickeo</t>
   </si>
   <si>
-    <t>ID Producto</t>
-  </si>
-  <si>
-    <t>Descripción Producto</t>
-  </si>
-  <si>
     <t>Unidades de Inventario</t>
   </si>
   <si>
@@ -106,18 +76,6 @@
     <t>Tarimas de Inventario</t>
   </si>
   <si>
-    <t>Semana</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>ID Proveedor</t>
-  </si>
-  <si>
-    <t>Nombre Proveedor</t>
-  </si>
-  <si>
     <t>Pedido</t>
   </si>
   <si>
@@ -133,33 +91,6 @@
     <t>Tarimas Recibidas</t>
   </si>
   <si>
-    <t>Fecha Recibo</t>
-  </si>
-  <si>
-    <t>Horario Recibo</t>
-  </si>
-  <si>
-    <t>Turno Recibo</t>
-  </si>
-  <si>
-    <t>ID Canal</t>
-  </si>
-  <si>
-    <t>Canal</t>
-  </si>
-  <si>
-    <t>ID Cliente</t>
-  </si>
-  <si>
-    <t>Nombre Cliente</t>
-  </si>
-  <si>
-    <t>ID Destino</t>
-  </si>
-  <si>
-    <t>Nombre Destino</t>
-  </si>
-  <si>
     <t>Unidades Embarcadas</t>
   </si>
   <si>
@@ -169,15 +100,6 @@
     <t>Tarimas Embarcadas</t>
   </si>
   <si>
-    <t>Fecha Embarque</t>
-  </si>
-  <si>
-    <t>Horario Embarque</t>
-  </si>
-  <si>
-    <t>Turno Embarque</t>
-  </si>
-  <si>
     <t>Unidades Devueltas</t>
   </si>
   <si>
@@ -187,15 +109,6 @@
     <t>Tarimas Devueltas</t>
   </si>
   <si>
-    <t>Fecha Devolución</t>
-  </si>
-  <si>
-    <t>Horario Devolución</t>
-  </si>
-  <si>
-    <t>Turno Devolución</t>
-  </si>
-  <si>
     <t>Volumen x Unidad</t>
   </si>
   <si>
@@ -203,6 +116,90 @@
   </si>
   <si>
     <t>Unidades x Caja</t>
+  </si>
+  <si>
+    <t>ID del Producto</t>
+  </si>
+  <si>
+    <t>Descripción del Producto</t>
+  </si>
+  <si>
+    <t>Clasificación ABC del Cliente</t>
+  </si>
+  <si>
+    <t>Clasificación ABC de Sintec</t>
+  </si>
+  <si>
+    <t>ID de la Categoría</t>
+  </si>
+  <si>
+    <t>ID de la Sub-Categoría</t>
+  </si>
+  <si>
+    <t>Familia de Almacén I</t>
+  </si>
+  <si>
+    <t>Familia de Almacén II</t>
+  </si>
+  <si>
+    <t>Familia de Almacén III</t>
+  </si>
+  <si>
+    <t>Fecha de Inventario</t>
+  </si>
+  <si>
+    <t>Hora de Inventario</t>
+  </si>
+  <si>
+    <t>ID del Proveedor</t>
+  </si>
+  <si>
+    <t>Nombre del Proveedor</t>
+  </si>
+  <si>
+    <t>Fecha de Recibo</t>
+  </si>
+  <si>
+    <t>Hora de Recibo</t>
+  </si>
+  <si>
+    <t>Turno de Recibo</t>
+  </si>
+  <si>
+    <t>ID del Canal</t>
+  </si>
+  <si>
+    <t>Nombre del Canal</t>
+  </si>
+  <si>
+    <t>ID del Cliente</t>
+  </si>
+  <si>
+    <t>Nombre del Cliente</t>
+  </si>
+  <si>
+    <t>ID del Destino</t>
+  </si>
+  <si>
+    <t>Nombre del Destino</t>
+  </si>
+  <si>
+    <t>Fecha de Embarque</t>
+  </si>
+  <si>
+    <t>Hora de Embarque</t>
+  </si>
+  <si>
+    <t>Turno de Embarque</t>
+  </si>
+  <si>
+    <t>Fecha de Devolución</t>
+  </si>
+  <si>
+    <t>Hora de Devolución</t>
+  </si>
+  <si>
+    <t>Turno de Devolución</t>
   </si>
 </sst>
 </file>
@@ -220,23 +217,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -249,31 +241,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,15 +586,15 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -607,13 +602,13 @@
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -621,67 +616,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -697,41 +692,41 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -746,62 +741,62 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -816,78 +811,78 @@
   </sheetPr>
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -902,78 +897,78 @@
   </sheetPr>
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
+      <c r="A1" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/plantilla.xlsx
+++ b/data/plantilla.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josemaria.flores\Documents\CEDIS\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA407D2-2438-4BE6-80FC-0AEE31121283}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A2D6AE-4900-4B46-B4DE-006CA4B7F80E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6A017247-C418-4239-B6E8-A667328D32B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Información SKU" sheetId="1" r:id="rId1"/>
+    <sheet name="Información de SKU" sheetId="1" r:id="rId1"/>
     <sheet name="Foto de Inventarios" sheetId="2" r:id="rId2"/>
     <sheet name="Base de Recibo" sheetId="3" r:id="rId3"/>
     <sheet name="Base de Embarque" sheetId="4" r:id="rId4"/>
@@ -148,9 +148,6 @@
     <t>Fecha de Inventario</t>
   </si>
   <si>
-    <t>Hora de Inventario</t>
-  </si>
-  <si>
     <t>ID del Proveedor</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Fecha de Recibo</t>
   </si>
   <si>
-    <t>Hora de Recibo</t>
-  </si>
-  <si>
     <t>Turno de Recibo</t>
   </si>
   <si>
@@ -187,19 +181,25 @@
     <t>Fecha de Embarque</t>
   </si>
   <si>
-    <t>Hora de Embarque</t>
-  </si>
-  <si>
     <t>Turno de Embarque</t>
   </si>
   <si>
     <t>Fecha de Devolución</t>
   </si>
   <si>
-    <t>Hora de Devolución</t>
-  </si>
-  <si>
     <t>Turno de Devolución</t>
+  </si>
+  <si>
+    <t>Horario de Inventario</t>
+  </si>
+  <si>
+    <t>Horario de Recibo</t>
+  </si>
+  <si>
+    <t>Horario de Embarque</t>
+  </si>
+  <si>
+    <t>Horario de Devolución</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +742,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -790,13 +790,13 @@
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -812,7 +812,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,22 +837,22 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
@@ -876,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,22 +923,22 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>12</v>
@@ -962,13 +962,13 @@
         <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/plantilla.xlsx
+++ b/data/plantilla.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josemaria.flores\Documents\CEDIS\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A2D6AE-4900-4B46-B4DE-006CA4B7F80E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15006061-73B3-4C92-A9CD-713EF8E62E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6A017247-C418-4239-B6E8-A667328D32B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A017247-C418-4239-B6E8-A667328D32B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Información de SKU" sheetId="1" r:id="rId1"/>
-    <sheet name="Foto de Inventarios" sheetId="2" r:id="rId2"/>
-    <sheet name="Base de Recibo" sheetId="3" r:id="rId3"/>
-    <sheet name="Base de Embarque" sheetId="4" r:id="rId4"/>
-    <sheet name="Base de Devoluciones" sheetId="5" r:id="rId5"/>
+    <sheet name="Index" sheetId="6" r:id="rId1"/>
+    <sheet name="Información de SKU" sheetId="1" r:id="rId2"/>
+    <sheet name="Foto de Inventarios" sheetId="2" r:id="rId3"/>
+    <sheet name="Base de Recibo" sheetId="3" r:id="rId4"/>
+    <sheet name="Base de Embarque" sheetId="4" r:id="rId5"/>
+    <sheet name="Base de Devoluciones" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="93">
   <si>
     <t>Política de Inventario</t>
   </si>
@@ -190,6 +191,120 @@
     <t>Turno de Devolución</t>
   </si>
   <si>
+    <t>Foto de Inventarios</t>
+  </si>
+  <si>
+    <t>Base de Embarque</t>
+  </si>
+  <si>
+    <t>Base de Devoluciones</t>
+  </si>
+  <si>
+    <t>Tablas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo Dato </t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Base de Recibo</t>
+  </si>
+  <si>
+    <t>Sí </t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>S3590</t>
+  </si>
+  <si>
+    <t>Vacío</t>
+  </si>
+  <si>
+    <t>CLORALEX AROMAX CITRICO 950ML C15</t>
+  </si>
+  <si>
+    <t>Requerido en Estacionalidad</t>
+  </si>
+  <si>
+    <t>Requerido en Cargas Operativas</t>
+  </si>
+  <si>
+    <t>Requerido en Resúmenes por Día</t>
+  </si>
+  <si>
+    <t>Requerido en Clasificación ABC Ponderada</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Numérico</t>
+  </si>
+  <si>
+    <t>Columnas</t>
+  </si>
+  <si>
+    <t>Valor por Defecto</t>
+  </si>
+  <si>
+    <t>Sin Familia</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Blanqueadores</t>
+  </si>
+  <si>
+    <t>Blancatel Polvo</t>
+  </si>
+  <si>
+    <t>Líquidos</t>
+  </si>
+  <si>
+    <t>Quitamanchas</t>
+  </si>
+  <si>
+    <t>Fresco</t>
+  </si>
+  <si>
+    <t>OCZ1</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
+  </si>
+  <si>
+    <t>TIENDAS SORIANA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TA1004689</t>
+  </si>
+  <si>
+    <t>Matutino</t>
+  </si>
+  <si>
+    <t>ANILLO PERIFERICO 4001</t>
+  </si>
+  <si>
+    <t>T9001665</t>
+  </si>
+  <si>
+    <t>NUEVA WAL MART DE MEXICO, S.</t>
+  </si>
+  <si>
+    <t>C1001665</t>
+  </si>
+  <si>
+    <t>Autoservicios</t>
+  </si>
+  <si>
     <t>Horario de Inventario</t>
   </si>
   <si>
@@ -200,13 +315,16 @@
   </si>
   <si>
     <t>Horario de Devolución</t>
+  </si>
+  <si>
+    <t>Información de SKU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,16 +340,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -254,11 +442,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,12 +498,122 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,6 +921,1674 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FD95A1-241B-4634-9817-5A1EFB43432E}">
+  <sheetPr>
+    <tabColor rgb="FFFF7C80"/>
+  </sheetPr>
+  <dimension ref="B3:K75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" style="3"/>
+    <col min="2" max="2" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.90625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.08984375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="21"/>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="21"/>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="21"/>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="21"/>
+      <c r="C8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="21"/>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="10">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="21"/>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="21"/>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="10">
+        <v>100</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="21"/>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="10">
+        <v>20.05</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="21"/>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="21"/>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="10">
+        <v>300</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
+      <c r="C17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="21"/>
+      <c r="C20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="21"/>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="21"/>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21"/>
+      <c r="C23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="22"/>
+      <c r="C24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="24"/>
+      <c r="C26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="24"/>
+      <c r="C27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="10">
+        <v>260</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="24"/>
+      <c r="C28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="10">
+        <v>25.8</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="24"/>
+      <c r="C29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="24"/>
+      <c r="C30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="37">
+        <v>43490</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="25"/>
+      <c r="C31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="27"/>
+      <c r="C33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="27"/>
+      <c r="C34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="14">
+        <v>11086033</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="27"/>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="14">
+        <v>10</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="27"/>
+      <c r="C36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B37" s="27"/>
+      <c r="C37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="27"/>
+      <c r="C38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="10">
+        <v>260</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="27"/>
+      <c r="C39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="10">
+        <v>25.8</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="27"/>
+      <c r="C40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B41" s="27"/>
+      <c r="C41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="37">
+        <v>43490</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B42" s="27"/>
+      <c r="C42" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="28"/>
+      <c r="C43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="39"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="39"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="30"/>
+      <c r="C45" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B46" s="30"/>
+      <c r="C46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="30"/>
+      <c r="C47" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="30"/>
+      <c r="C48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="30"/>
+      <c r="C49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" s="30"/>
+      <c r="C50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="14">
+        <v>11086033</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B51" s="30"/>
+      <c r="C51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="14">
+        <v>10</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B52" s="30"/>
+      <c r="C52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B53" s="30"/>
+      <c r="C53" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B54" s="30"/>
+      <c r="C54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="10">
+        <v>260</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B55" s="30"/>
+      <c r="C55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="10">
+        <v>25.8</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B56" s="30"/>
+      <c r="C56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B57" s="30"/>
+      <c r="C57" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="37">
+        <v>43490</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B58" s="30"/>
+      <c r="C58" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="14"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B59" s="31"/>
+      <c r="C59" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="39"/>
+      <c r="H60" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="39"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="39"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B61" s="33"/>
+      <c r="C61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="14"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B62" s="33"/>
+      <c r="C62" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B63" s="33"/>
+      <c r="C63" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B64" s="33"/>
+      <c r="C64" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B65" s="33"/>
+      <c r="C65" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" s="14"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B66" s="33"/>
+      <c r="C66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="14">
+        <v>11086033</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="10"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B67" s="33"/>
+      <c r="C67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="14">
+        <v>10</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" s="10"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B68" s="33"/>
+      <c r="C68" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" s="14"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B69" s="33"/>
+      <c r="C69" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" s="14"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B70" s="33"/>
+      <c r="C70" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="10">
+        <v>260</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B71" s="33"/>
+      <c r="C71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="10">
+        <v>25.8</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B72" s="33"/>
+      <c r="C72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B73" s="33"/>
+      <c r="C73" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="37">
+        <v>43490</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B74" s="33"/>
+      <c r="C74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B75" s="34"/>
+      <c r="C75" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="B44:B59"/>
+    <mergeCell ref="B60:B75"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1426601A-4A6D-4B4B-8AB3-B9C4CB5D2F8E}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -586,35 +2596,35 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -684,7 +2694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA09E832-F589-4346-BF22-24DC71EA7039}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -692,21 +2702,21 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -726,7 +2736,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -734,34 +2744,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FB50C2-EEBC-499F-BDAD-7CE3F4723A0B}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -793,7 +2803,7 @@
         <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>39</v>
@@ -804,38 +2814,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6028ED-A7CA-44CE-A693-59CF1E32A008}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -879,7 +2889,7 @@
         <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>47</v>
@@ -890,38 +2900,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7C6D80-C135-40D9-B751-6C88A7A10647}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -965,7 +2975,7 @@
         <v>48</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>49</v>
